--- a/data/scheduling_DNN/predict/result17.xlsx
+++ b/data/scheduling_DNN/predict/result17.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         <v>1.278625011444092</v>
       </c>
       <c r="V2" t="n">
-        <v>0.559548020362854</v>
+        <v>0.5612205266952515</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -632,7 +632,7 @@
         <v>0.9315309524536133</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6011229157447815</v>
+        <v>0.5379694104194641</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -700,7 +700,7 @@
         <v>0.8728039264678955</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4998661577701569</v>
+        <v>0.5881173610687256</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -768,7 +768,7 @@
         <v>0.8783209323883057</v>
       </c>
       <c r="V5" t="n">
-        <v>0.424197793006897</v>
+        <v>0.8844614028930664</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -836,7 +836,7 @@
         <v>0.9347138404846191</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3993833363056183</v>
+        <v>0.4850061535835266</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -904,7 +904,7 @@
         <v>0.8745720386505127</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4115413427352905</v>
+        <v>0.5380626916885376</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -972,7 +972,7 @@
         <v>0.8714470863342285</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9230915307998657</v>
+        <v>0.4398151040077209</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1040,7 +1040,7 @@
         <v>0.8679490089416504</v>
       </c>
       <c r="V9" t="n">
-        <v>0.479607105255127</v>
+        <v>0.4676487445831299</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1108,7 +1108,7 @@
         <v>0.9213850498199463</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8794444799423218</v>
+        <v>0.4038267731666565</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1176,7 +1176,7 @@
         <v>0.8783540725708008</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3850345015525818</v>
+        <v>0.5378709435462952</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1244,7 +1244,7 @@
         <v>0.8560359477996826</v>
       </c>
       <c r="V12" t="n">
-        <v>0.883878231048584</v>
+        <v>0.5379790663719177</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1312,7 +1312,7 @@
         <v>0.8662741184234619</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3746906220912933</v>
+        <v>0.5378905534744263</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1380,7 +1380,7 @@
         <v>0.9164319038391113</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9421816468238831</v>
+        <v>0.4425503611564636</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1448,7 +1448,7 @@
         <v>0.9046680927276611</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8458663821220398</v>
+        <v>0.8878307342529297</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1516,7 +1516,7 @@
         <v>0.8792328834533691</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3877279162406921</v>
+        <v>0.5903171300888062</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1584,7 +1584,7 @@
         <v>0.9291579723358154</v>
       </c>
       <c r="V17" t="n">
-        <v>0.411725640296936</v>
+        <v>0.4834600687026978</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1652,7 +1652,7 @@
         <v>0.9192140102386475</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8805725574493408</v>
+        <v>0.6487356424331665</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1720,7 +1720,7 @@
         <v>0.8607621192932129</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4911122918128967</v>
+        <v>0.6566144227981567</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1788,7 +1788,7 @@
         <v>0.9078121185302734</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6016682386398315</v>
+        <v>0.6536902785301208</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1856,7 +1856,7 @@
         <v>1.051532983779907</v>
       </c>
       <c r="V21" t="n">
-        <v>0.499720424413681</v>
+        <v>0.7939709424972534</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1924,7 +1924,7 @@
         <v>0.6805069446563721</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4268365204334259</v>
+        <v>0.5570175051689148</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1992,7 +1992,7 @@
         <v>0.5418510437011719</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8755288124084473</v>
+        <v>0.401404857635498</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2060,7 +2060,7 @@
         <v>0.5207180976867676</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3876047134399414</v>
+        <v>0.5887453556060791</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2128,7 +2128,7 @@
         <v>0.5262298583984375</v>
       </c>
       <c r="V25" t="n">
-        <v>1.096320271492004</v>
+        <v>0.477519690990448</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2196,7 +2196,7 @@
         <v>0.5306339263916016</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4803087413311005</v>
+        <v>0.6181319952011108</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2264,7 +2264,7 @@
         <v>0.5293750762939453</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4645043313503265</v>
+        <v>0.4223676919937134</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2332,7 +2332,7 @@
         <v>0.5149459838867188</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8471192121505737</v>
+        <v>0.6539028882980347</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2400,7 +2400,7 @@
         <v>0.5228018760681152</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8816183805465698</v>
+        <v>0.3610076904296875</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2468,7 +2468,7 @@
         <v>0.5388278961181641</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9151544570922852</v>
+        <v>0.7839659452438354</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2536,7 +2536,7 @@
         <v>0.514962911605835</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4644810557365417</v>
+        <v>0.7097801566123962</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2604,7 +2604,7 @@
         <v>0.5909121036529541</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4876549243927002</v>
+        <v>0.3609938621520996</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2672,7 +2672,7 @@
         <v>0.51580810546875</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8781228065490723</v>
+        <v>0.7011902928352356</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2740,7 +2740,7 @@
         <v>0.5174050331115723</v>
       </c>
       <c r="V34" t="n">
-        <v>0.411492645740509</v>
+        <v>0.4223841428756714</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2808,7 +2808,7 @@
         <v>0.510145902633667</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3955202698707581</v>
+        <v>0.590424120426178</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2876,7 +2876,7 @@
         <v>0.5142719745635986</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4944505095481873</v>
+        <v>0.4550826549530029</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2944,7 +2944,7 @@
         <v>0.5140159130096436</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4570256471633911</v>
+        <v>0.5378856658935547</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3012,7 +3012,7 @@
         <v>0.5164780616760254</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4368326663970947</v>
+        <v>0.438521683216095</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3080,7 +3080,7 @@
         <v>0.5160830020904541</v>
       </c>
       <c r="V39" t="n">
-        <v>1.13214099407196</v>
+        <v>0.4225040078163147</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3148,7 +3148,7 @@
         <v>0.5140771865844727</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4986112713813782</v>
+        <v>0.7100529074668884</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3216,7 +3216,7 @@
         <v>0.5185961723327637</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3636754155158997</v>
+        <v>0.3867952823638916</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3284,7 +3284,7 @@
         <v>0.404655933380127</v>
       </c>
       <c r="V42" t="n">
-        <v>0.8457927703857422</v>
+        <v>0.4211761355400085</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3352,7 +3352,7 @@
         <v>0.4719488620758057</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4175234436988831</v>
+        <v>0.4384316802024841</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3420,7 +3420,7 @@
         <v>0.3866188526153564</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4117042422294617</v>
+        <v>0.7102096080780029</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3488,7 +3488,7 @@
         <v>0.3858962059020996</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4982481002807617</v>
+        <v>0.3610464334487915</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3556,7 +3556,7 @@
         <v>0.3848860263824463</v>
       </c>
       <c r="V46" t="n">
-        <v>1.171059846878052</v>
+        <v>0.4849292635917664</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3624,7 +3624,7 @@
         <v>0.3969569206237793</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6015334725379944</v>
+        <v>0.6095840334892273</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3692,7 +3692,7 @@
         <v>0.4113471508026123</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9053060412406921</v>
+        <v>0.3866152763366699</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3760,7 +3760,7 @@
         <v>0.4282140731811523</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5616501569747925</v>
+        <v>0.5888757705688477</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3828,7 +3828,7 @@
         <v>0.3858199119567871</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4979836344718933</v>
+        <v>0.6896145939826965</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3896,7 +3896,7 @@
         <v>0.3868610858917236</v>
       </c>
       <c r="V51" t="n">
-        <v>0.8796188831329346</v>
+        <v>0.440751314163208</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3964,7 +3964,7 @@
         <v>0.3860290050506592</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4993503391742706</v>
+        <v>0.7030863761901855</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4032,7 +4032,7 @@
         <v>0.3862721920013428</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8468140363693237</v>
+        <v>0.5379613637924194</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4100,7 +4100,7 @@
         <v>0.3878300189971924</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4604020118713379</v>
+        <v>0.4425290822982788</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4168,7 +4168,7 @@
         <v>0.3859210014343262</v>
       </c>
       <c r="V55" t="n">
-        <v>0.9234492778778076</v>
+        <v>0.6516602039337158</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4236,7 +4236,7 @@
         <v>0.409235954284668</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3995085954666138</v>
+        <v>0.703600287437439</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4304,7 +4304,7 @@
         <v>0.3863928318023682</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8781638741493225</v>
+        <v>0.6954771280288696</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4372,7 +4372,7 @@
         <v>0.3872580528259277</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6711854338645935</v>
+        <v>0.5618018507957458</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4440,7 +4440,7 @@
         <v>0.3912420272827148</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4175295233726501</v>
+        <v>0.4553601741790771</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4508,7 +4508,7 @@
         <v>0.3889451026916504</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8708738684654236</v>
+        <v>0.6180075407028198</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4576,7 +4576,7 @@
         <v>0.3869929313659668</v>
       </c>
       <c r="V61" t="n">
-        <v>1.136635661125183</v>
+        <v>0.4890546202659607</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4644,7 +4644,7 @@
         <v>0.9583940505981445</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3985591530799866</v>
+        <v>0.4035907387733459</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4712,7 +4712,7 @@
         <v>0.9060430526733398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.9131340384483337</v>
+        <v>0.6980346441268921</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4780,7 +4780,7 @@
         <v>0.8759150505065918</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4615228474140167</v>
+        <v>0.4768378734588623</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4848,7 +4848,7 @@
         <v>0.8710899353027344</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3986238241195679</v>
+        <v>0.5659052133560181</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4916,7 +4916,7 @@
         <v>0.882378101348877</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3994849026203156</v>
+        <v>0.6894387602806091</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4984,7 +4984,7 @@
         <v>0.8734641075134277</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3887946903705597</v>
+        <v>0.7033109068870544</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5052,7 +5052,7 @@
         <v>0.8694069385528564</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4906129837036133</v>
+        <v>0.5611301064491272</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5120,7 +5120,7 @@
         <v>0.863152027130127</v>
       </c>
       <c r="V69" t="n">
-        <v>0.8868096470832825</v>
+        <v>0.7839377522468567</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5188,7 +5188,7 @@
         <v>0.8647668361663818</v>
       </c>
       <c r="V70" t="n">
-        <v>0.887474536895752</v>
+        <v>0.5858365893363953</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5256,7 +5256,7 @@
         <v>0.8711988925933838</v>
       </c>
       <c r="V71" t="n">
-        <v>1.132946491241455</v>
+        <v>0.537911593914032</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5324,7 +5324,7 @@
         <v>0.8940391540527344</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4990013837814331</v>
+        <v>0.5879279971122742</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5392,7 +5392,7 @@
         <v>0.865178108215332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3946312665939331</v>
+        <v>0.6077727079391479</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5460,7 +5460,7 @@
         <v>0.8620350360870361</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4979722201824188</v>
+        <v>0.5887073874473572</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5528,7 +5528,7 @@
         <v>0.8610241413116455</v>
       </c>
       <c r="V75" t="n">
-        <v>1.133847594261169</v>
+        <v>0.4765533804893494</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5596,7 +5596,7 @@
         <v>0.8656890392303467</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4180973172187805</v>
+        <v>0.5912466049194336</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.8706119060516357</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3814650774002075</v>
+        <v>0.6485797166824341</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>0.8628010749816895</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4969238936901093</v>
+        <v>0.4802520871162415</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5800,7 +5800,7 @@
         <v>0.8727540969848633</v>
       </c>
       <c r="V79" t="n">
-        <v>0.8476419448852539</v>
+        <v>0.438488781452179</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5868,7 +5868,7 @@
         <v>0.8489360809326172</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6018207669258118</v>
+        <v>0.4718003869056702</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5936,7 +5936,7 @@
         <v>0.857429027557373</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4965764880180359</v>
+        <v>0.7098118662834167</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6004,7 +6004,7 @@
         <v>0.5475618839263916</v>
       </c>
       <c r="V82" t="n">
-        <v>0.8807221055030823</v>
+        <v>0.689443826675415</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6072,7 +6072,7 @@
         <v>0.5223798751831055</v>
       </c>
       <c r="V83" t="n">
-        <v>0.9124832153320312</v>
+        <v>0.5662949681282043</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6140,7 +6140,7 @@
         <v>0.5158839225769043</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6018193364143372</v>
+        <v>0.8804707527160645</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6208,7 +6208,7 @@
         <v>0.5178000926971436</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4220831990242004</v>
+        <v>0.4796501398086548</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6276,7 +6276,7 @@
         <v>0.5120930671691895</v>
       </c>
       <c r="V86" t="n">
-        <v>0.8775608539581299</v>
+        <v>0.3609644174575806</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.5679559707641602</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4980091452598572</v>
+        <v>0.4408747553825378</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6412,7 +6412,7 @@
         <v>0.517035961151123</v>
       </c>
       <c r="V88" t="n">
-        <v>1.137232780456543</v>
+        <v>0.480705738067627</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6480,7 +6480,7 @@
         <v>0.5192339420318604</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4861105978488922</v>
+        <v>0.6981954574584961</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6548,7 +6548,7 @@
         <v>0.5150690078735352</v>
       </c>
       <c r="V90" t="n">
-        <v>0.8713778853416443</v>
+        <v>0.4795900583267212</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6616,7 +6616,7 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5042579770088196</v>
+        <v>0.6566483378410339</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6684,7 +6684,7 @@
         <v>0.5186920166015625</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4851142168045044</v>
+        <v>0.5854825973510742</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6752,7 +6752,7 @@
         <v>0.5181910991668701</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4843902587890625</v>
+        <v>0.4805735945701599</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6820,7 +6820,7 @@
         <v>0.5129578113555908</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4987834990024567</v>
+        <v>0.5378978252410889</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6888,7 +6888,7 @@
         <v>0.5182981491088867</v>
       </c>
       <c r="V95" t="n">
-        <v>0.8458221554756165</v>
+        <v>0.4227635264396667</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6956,7 +6956,7 @@
         <v>0.5157368183135986</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8999861478805542</v>
+        <v>0.3785778284072876</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7024,7 +7024,7 @@
         <v>0.517038106918335</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5041255950927734</v>
+        <v>0.3609535694122314</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7092,7 +7092,7 @@
         <v>0.5660309791564941</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4861262440681458</v>
+        <v>0.8844561576843262</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7160,7 +7160,7 @@
         <v>0.5193438529968262</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3877398669719696</v>
+        <v>0.4222974181175232</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7228,7 +7228,7 @@
         <v>0.5185110569000244</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8461793065071106</v>
+        <v>0.4228395819664001</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7296,7 +7296,7 @@
         <v>0.5145349502563477</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4424922466278076</v>
+        <v>0.4399700164794922</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7364,7 +7364,7 @@
         <v>0.3960089683532715</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3993973135948181</v>
+        <v>0.4902856349945068</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7432,7 +7432,7 @@
         <v>0.3945181369781494</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6015764474868774</v>
+        <v>0.422416090965271</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7500,7 +7500,7 @@
         <v>0.4094679355621338</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4994264841079712</v>
+        <v>0.4054241180419922</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7568,7 +7568,7 @@
         <v>0.402616024017334</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4876733124256134</v>
+        <v>0.4810751676559448</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7636,7 +7636,7 @@
         <v>0.3881978988647461</v>
       </c>
       <c r="V106" t="n">
-        <v>1.057049870491028</v>
+        <v>0.8854296207427979</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7704,7 +7704,7 @@
         <v>0.3875870704650879</v>
       </c>
       <c r="V107" t="n">
-        <v>1.131621956825256</v>
+        <v>0.6095789670944214</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7772,7 +7772,7 @@
         <v>0.3868029117584229</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4818471074104309</v>
+        <v>0.3868059515953064</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7840,7 +7840,7 @@
         <v>0.3858330249786377</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6017019152641296</v>
+        <v>0.4788762331008911</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7908,7 +7908,7 @@
         <v>0.4380300045013428</v>
       </c>
       <c r="V110" t="n">
-        <v>0.8775697946548462</v>
+        <v>0.4226717352867126</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7976,7 +7976,7 @@
         <v>0.3926200866699219</v>
       </c>
       <c r="V111" t="n">
-        <v>0.863960862159729</v>
+        <v>0.4844722747802734</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8044,7 +8044,7 @@
         <v>0.4199950695037842</v>
       </c>
       <c r="V112" t="n">
-        <v>0.9024732708930969</v>
+        <v>0.4806921482086182</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8112,7 +8112,7 @@
         <v>0.3880131244659424</v>
       </c>
       <c r="V113" t="n">
-        <v>0.498156875371933</v>
+        <v>0.6865060329437256</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8180,7 +8180,7 @@
         <v>0.3906128406524658</v>
       </c>
       <c r="V114" t="n">
-        <v>0.8696454763412476</v>
+        <v>0.6980321407318115</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8248,7 +8248,7 @@
         <v>0.390388011932373</v>
       </c>
       <c r="V115" t="n">
-        <v>1.134321928024292</v>
+        <v>0.7898924350738525</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8316,7 +8316,7 @@
         <v>0.4383928775787354</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3849597275257111</v>
+        <v>0.6240726113319397</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8384,7 +8384,7 @@
         <v>0.3909389972686768</v>
       </c>
       <c r="V117" t="n">
-        <v>0.8851959109306335</v>
+        <v>0.4223513603210449</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8452,7 +8452,7 @@
         <v>0.4151778221130371</v>
       </c>
       <c r="V118" t="n">
-        <v>0.449485719203949</v>
+        <v>0.3786981105804443</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8520,7 +8520,7 @@
         <v>0.3895719051361084</v>
       </c>
       <c r="V119" t="n">
-        <v>1.13162362575531</v>
+        <v>0.4224810004234314</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8588,7 +8588,7 @@
         <v>0.3895649909973145</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3945549428462982</v>
+        <v>0.4719034433364868</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8656,7 +8656,7 @@
         <v>0.390326976776123</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4642555415630341</v>
+        <v>0.3610337376594543</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8724,7 +8724,7 @@
         <v>0.9526019096374512</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4843428432941437</v>
+        <v>0.6074541807174683</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8792,7 +8792,7 @@
         <v>0.9093990325927734</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3994733095169067</v>
+        <v>0.8845577836036682</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8860,7 +8860,7 @@
         <v>0.8593389987945557</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3884827494621277</v>
+        <v>0.4068009853363037</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8928,7 +8928,7 @@
         <v>0.8695569038391113</v>
       </c>
       <c r="V125" t="n">
-        <v>0.601412832736969</v>
+        <v>0.6896112561225891</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8996,7 +8996,7 @@
         <v>0.9181571006774902</v>
       </c>
       <c r="V126" t="n">
-        <v>0.881690502166748</v>
+        <v>0.8856419324874878</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>0.8750870227813721</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3938308358192444</v>
+        <v>0.7900906205177307</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9132,7 +9132,7 @@
         <v>0.8594310283660889</v>
       </c>
       <c r="V128" t="n">
-        <v>0.8840546607971191</v>
+        <v>0.5379487872123718</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9200,7 +9200,7 @@
         <v>0.8594059944152832</v>
       </c>
       <c r="V129" t="n">
-        <v>0.3979810476303101</v>
+        <v>0.455345094203949</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9268,7 +9268,7 @@
         <v>0.9248340129852295</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4969280064105988</v>
+        <v>0.8805574774742126</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9336,7 +9336,7 @@
         <v>0.8627960681915283</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4842595756053925</v>
+        <v>0.4721607565879822</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9404,7 +9404,7 @@
         <v>0.8653979301452637</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3935632705688477</v>
+        <v>0.6106979846954346</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9472,7 +9472,7 @@
         <v>0.8747179508209229</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4995590150356293</v>
+        <v>0.5379722714424133</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9540,7 +9540,7 @@
         <v>0.9119360446929932</v>
       </c>
       <c r="V134" t="n">
-        <v>1.185249447822571</v>
+        <v>0.5905375480651855</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9608,7 +9608,7 @@
         <v>0.8794970512390137</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3995102047920227</v>
+        <v>0.3665919899940491</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9676,7 +9676,7 @@
         <v>0.8631889820098877</v>
       </c>
       <c r="V136" t="n">
-        <v>1.136991739273071</v>
+        <v>0.3611143827438354</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9744,7 +9744,7 @@
         <v>0.859199047088623</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3993474543094635</v>
+        <v>0.4408711791038513</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9812,7 +9812,7 @@
         <v>0.9220519065856934</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3842377364635468</v>
+        <v>0.5853784084320068</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -9880,7 +9880,7 @@
         <v>0.8635120391845703</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5003520250320435</v>
+        <v>0.5874905586242676</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -9948,7 +9948,7 @@
         <v>0.9157559871673584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8829277157783508</v>
+        <v>0.475893497467041</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10016,7 +10016,7 @@
         <v>0.8579831123352051</v>
       </c>
       <c r="V141" t="n">
-        <v>0.880107581615448</v>
+        <v>0.5379284620285034</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10084,7 +10084,7 @@
         <v>0.5923888683319092</v>
       </c>
       <c r="V142" t="n">
-        <v>0.8784309029579163</v>
+        <v>0.3609153628349304</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10152,7 +10152,7 @@
         <v>0.5218830108642578</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3985612094402313</v>
+        <v>0.689429759979248</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10220,7 +10220,7 @@
         <v>0.5184571743011475</v>
       </c>
       <c r="V144" t="n">
-        <v>0.433089554309845</v>
+        <v>0.4851488471031189</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10288,7 +10288,7 @@
         <v>0.5126571655273438</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4982612133026123</v>
+        <v>0.4029312133789062</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10356,7 +10356,7 @@
         <v>0.5166079998016357</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4987005591392517</v>
+        <v>0.5552331805229187</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10424,7 +10424,7 @@
         <v>0.5250978469848633</v>
       </c>
       <c r="V147" t="n">
-        <v>0.8720660209655762</v>
+        <v>0.4757353663444519</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10492,7 +10492,7 @@
         <v>0.5211939811706543</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3888583481311798</v>
+        <v>0.473851203918457</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10560,7 +10560,7 @@
         <v>0.5191619396209717</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4018704891204834</v>
+        <v>0.4211356043815613</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10628,7 +10628,7 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4871741235256195</v>
+        <v>0.6080566644668579</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10696,7 +10696,7 @@
         <v>0.5128638744354248</v>
       </c>
       <c r="V151" t="n">
-        <v>0.504264771938324</v>
+        <v>0.6077224016189575</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10764,7 +10764,7 @@
         <v>0.5150089263916016</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3944844603538513</v>
+        <v>0.3887149095535278</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10832,7 +10832,7 @@
         <v>0.5721690654754639</v>
       </c>
       <c r="V153" t="n">
-        <v>0.8833498954772949</v>
+        <v>0.4229405522346497</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -10900,7 +10900,7 @@
         <v>0.5184500217437744</v>
       </c>
       <c r="V154" t="n">
-        <v>1.131055235862732</v>
+        <v>0.3609561920166016</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10968,7 +10968,7 @@
         <v>0.5217239856719971</v>
       </c>
       <c r="V155" t="n">
-        <v>0.426747053861618</v>
+        <v>0.8822290897369385</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11036,7 +11036,7 @@
         <v>0.5196211338043213</v>
       </c>
       <c r="V156" t="n">
-        <v>0.8776887655258179</v>
+        <v>0.4384209513664246</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11104,7 +11104,7 @@
         <v>0.5197439193725586</v>
       </c>
       <c r="V157" t="n">
-        <v>0.8710633516311646</v>
+        <v>0.4712569713592529</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11172,7 +11172,7 @@
         <v>0.5163350105285645</v>
       </c>
       <c r="V158" t="n">
-        <v>0.369038313627243</v>
+        <v>0.4223563671112061</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11240,7 +11240,7 @@
         <v>0.5179429054260254</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4641756415367126</v>
+        <v>0.3877466320991516</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11308,7 +11308,7 @@
         <v>0.5239419937133789</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4116590917110443</v>
+        <v>0.6075444221496582</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11376,7 +11376,7 @@
         <v>0.5159420967102051</v>
       </c>
       <c r="V161" t="n">
-        <v>0.8800579905509949</v>
+        <v>0.3657307028770447</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11444,7 +11444,7 @@
         <v>0.3954710960388184</v>
       </c>
       <c r="V162" t="n">
-        <v>0.3923197984695435</v>
+        <v>0.6075578927993774</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11512,7 +11512,7 @@
         <v>0.3907070159912109</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6017526984214783</v>
+        <v>0.5904473066329956</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11580,7 +11580,7 @@
         <v>0.4388830661773682</v>
       </c>
       <c r="V164" t="n">
-        <v>0.3943470418453217</v>
+        <v>0.4228060841560364</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11648,7 +11648,7 @@
         <v>0.3931200504302979</v>
       </c>
       <c r="V165" t="n">
-        <v>0.402190089225769</v>
+        <v>0.3799396157264709</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11716,7 +11716,7 @@
         <v>0.3911409378051758</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4117001891136169</v>
+        <v>0.4854723215103149</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11784,7 +11784,7 @@
         <v>0.3930919170379639</v>
       </c>
       <c r="V167" t="n">
-        <v>0.420538455247879</v>
+        <v>0.6490634083747864</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -11852,7 +11852,7 @@
         <v>0.3961279392242432</v>
       </c>
       <c r="V168" t="n">
-        <v>0.8837320804595947</v>
+        <v>0.5172411203384399</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -11920,7 +11920,7 @@
         <v>0.3914148807525635</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6016830801963806</v>
+        <v>0.5580369234085083</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11988,7 +11988,7 @@
         <v>0.3975849151611328</v>
       </c>
       <c r="V170" t="n">
-        <v>0.8850364685058594</v>
+        <v>0.3671503067016602</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12056,7 +12056,7 @@
         <v>0.3904650211334229</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4115292429924011</v>
+        <v>0.7101702690124512</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12124,7 +12124,7 @@
         <v>0.3915770053863525</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4596342146396637</v>
+        <v>0.3666130304336548</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12192,7 +12192,7 @@
         <v>0.3938140869140625</v>
       </c>
       <c r="V173" t="n">
-        <v>1.185799717903137</v>
+        <v>0.3648877739906311</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12260,7 +12260,7 @@
         <v>0.3942358493804932</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4993092715740204</v>
+        <v>0.7964216470718384</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -12328,7 +12328,7 @@
         <v>0.3874709606170654</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4116507768630981</v>
+        <v>0.4843006730079651</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -12396,7 +12396,7 @@
         <v>0.3920910358428955</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4133858382701874</v>
+        <v>0.8805928230285645</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.4573519229888916</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3814153075218201</v>
+        <v>0.4214755892753601</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -12532,7 +12532,7 @@
         <v>0.3923280239105225</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6018348932266235</v>
+        <v>0.8854069709777832</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>0.3946781158447266</v>
       </c>
       <c r="V179" t="n">
-        <v>0.8661831021308899</v>
+        <v>0.8821443915367126</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -12668,7 +12668,7 @@
         <v>0.3937029838562012</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4117060899734497</v>
+        <v>0.6984093189239502</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -12736,7 +12736,7 @@
         <v>0.4113798141479492</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4802742302417755</v>
+        <v>0.6077646017074585</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>0.8773300647735596</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6016938090324402</v>
+        <v>0.6076244711875916</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -12872,7 +12872,7 @@
         <v>0.9169509410858154</v>
       </c>
       <c r="V183" t="n">
-        <v>1.137437343597412</v>
+        <v>0.6058166027069092</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -12940,7 +12940,7 @@
         <v>0.8726620674133301</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4877929389476776</v>
+        <v>0.4033211469650269</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13008,7 +13008,7 @@
         <v>0.8765661716461182</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4803219735622406</v>
+        <v>0.4227662682533264</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13076,7 +13076,7 @@
         <v>0.8574149608612061</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4975796639919281</v>
+        <v>0.591393768787384</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13144,7 +13144,7 @@
         <v>0.8837149143218994</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4868340492248535</v>
+        <v>0.7902021408081055</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13212,7 +13212,7 @@
         <v>0.8662068843841553</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4912087023258209</v>
+        <v>0.6086816191673279</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13280,7 +13280,7 @@
         <v>0.8682329654693604</v>
       </c>
       <c r="V189" t="n">
-        <v>0.3983343541622162</v>
+        <v>0.5620260834693909</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13348,7 +13348,7 @@
         <v>0.8881559371948242</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3937385976314545</v>
+        <v>0.3609372973442078</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -13416,7 +13416,7 @@
         <v>0.8926899433135986</v>
       </c>
       <c r="V191" t="n">
-        <v>0.8892205357551575</v>
+        <v>0.3867775201797485</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -13484,7 +13484,7 @@
         <v>0.8605639934539795</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3857117593288422</v>
+        <v>0.4837238192558289</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -13552,7 +13552,7 @@
         <v>0.8759949207305908</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8630414605140686</v>
+        <v>0.6563281416893005</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -13620,7 +13620,7 @@
         <v>0.9239978790283203</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3993862569332123</v>
+        <v>0.6587436199188232</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -13688,7 +13688,7 @@
         <v>0.8740930557250977</v>
       </c>
       <c r="V195" t="n">
-        <v>0.9159719944000244</v>
+        <v>0.5379091501235962</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -13756,7 +13756,7 @@
         <v>0.8621790409088135</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8799872398376465</v>
+        <v>0.4226645827293396</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -13824,7 +13824,7 @@
         <v>0.8700771331787109</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8819480538368225</v>
+        <v>0.6490487456321716</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -13892,7 +13892,7 @@
         <v>0.9252641201019287</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3817300200462341</v>
+        <v>0.5881587862968445</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -13960,7 +13960,7 @@
         <v>0.8725690841674805</v>
       </c>
       <c r="V199" t="n">
-        <v>1.132320284843445</v>
+        <v>0.5606808662414551</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14028,7 +14028,7 @@
         <v>0.880234956741333</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3805948793888092</v>
+        <v>0.3647720217704773</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14096,7 +14096,7 @@
         <v>1.401460886001587</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4613971412181854</v>
+        <v>0.8821812868118286</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14164,7 +14164,7 @@
         <v>0.5744049549102783</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5027596354484558</v>
+        <v>0.3611395955085754</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14232,7 +14232,7 @@
         <v>0.5393190383911133</v>
       </c>
       <c r="V203" t="n">
-        <v>0.8630756735801697</v>
+        <v>0.4554443955421448</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14300,7 +14300,7 @@
         <v>0.5370819568634033</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4115557968616486</v>
+        <v>0.6047618389129639</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14368,7 +14368,7 @@
         <v>0.5194170475006104</v>
       </c>
       <c r="V205" t="n">
-        <v>0.8905820846557617</v>
+        <v>0.6051912903785706</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -14436,7 +14436,7 @@
         <v>0.5141060352325439</v>
       </c>
       <c r="V206" t="n">
-        <v>0.486443042755127</v>
+        <v>0.7040767669677734</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -14504,7 +14504,7 @@
         <v>0.5426201820373535</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4986737072467804</v>
+        <v>0.5562270879745483</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -14572,7 +14572,7 @@
         <v>0.5196869373321533</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4836670160293579</v>
+        <v>0.4226563572883606</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -14640,7 +14640,7 @@
         <v>0.5132639408111572</v>
       </c>
       <c r="V209" t="n">
-        <v>0.9515053033828735</v>
+        <v>0.6086897850036621</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -14708,7 +14708,7 @@
         <v>0.5155079364776611</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4984106421470642</v>
+        <v>0.4223188161849976</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -14776,7 +14776,7 @@
         <v>0.5219659805297852</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4907276928424835</v>
+        <v>0.64891517162323</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -14844,7 +14844,7 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V212" t="n">
-        <v>0.398471474647522</v>
+        <v>0.6077598333358765</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -14912,7 +14912,7 @@
         <v>0.5533528327941895</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4872888624668121</v>
+        <v>0.3609596490859985</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -14980,7 +14980,7 @@
         <v>0.5215380191802979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5619826316833496</v>
+        <v>0.4870217442512512</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -15048,7 +15048,7 @@
         <v>0.5205159187316895</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8622301816940308</v>
+        <v>0.4427711367607117</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -15116,7 +15116,7 @@
         <v>0.521075963973999</v>
       </c>
       <c r="V216" t="n">
-        <v>0.3939732313156128</v>
+        <v>0.5380772948265076</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -15184,7 +15184,7 @@
         <v>0.5170080661773682</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3994770646095276</v>
+        <v>0.7033395767211914</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -15252,7 +15252,7 @@
         <v>0.5734741687774658</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4173688888549805</v>
+        <v>0.4411333203315735</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -15320,7 +15320,7 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4814547300338745</v>
+        <v>0.4888110160827637</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -15388,7 +15388,7 @@
         <v>0.522554874420166</v>
       </c>
       <c r="V220" t="n">
-        <v>0.387713223695755</v>
+        <v>0.4844552874565125</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -15456,7 +15456,7 @@
         <v>0.5203990936279297</v>
       </c>
       <c r="V221" t="n">
-        <v>0.8471550345420837</v>
+        <v>0.3671593070030212</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -15524,7 +15524,7 @@
         <v>0.3890118598937988</v>
       </c>
       <c r="V222" t="n">
-        <v>0.9366945624351501</v>
+        <v>0.6556221842765808</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -15592,7 +15592,7 @@
         <v>0.3902950286865234</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4870565533638</v>
+        <v>0.3609108924865723</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -15660,7 +15660,7 @@
         <v>0.4469938278198242</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3644687831401825</v>
+        <v>0.480116069316864</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -15728,7 +15728,7 @@
         <v>0.392413854598999</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4905844032764435</v>
+        <v>0.3609158396720886</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -15796,7 +15796,7 @@
         <v>0.390031099319458</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5859752893447876</v>
+        <v>0.5887113809585571</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -15864,7 +15864,7 @@
         <v>0.3930361270904541</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4981699883937836</v>
+        <v>0.4914345741271973</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -15932,7 +15932,7 @@
         <v>0.39192795753479</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4597629606723785</v>
+        <v>0.3859796524047852</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16000,7 +16000,7 @@
         <v>0.3957130908966064</v>
       </c>
       <c r="V229" t="n">
-        <v>0.915101170539856</v>
+        <v>0.4868853092193604</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16068,7 +16068,7 @@
         <v>0.3933560848236084</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6012014150619507</v>
+        <v>0.4841680526733398</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16136,7 +16136,7 @@
         <v>0.392982006072998</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3983033895492554</v>
+        <v>0.4801205992698669</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16204,7 +16204,7 @@
         <v>0.4005930423736572</v>
       </c>
       <c r="V232" t="n">
-        <v>0.557381272315979</v>
+        <v>0.5379217863082886</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -16272,7 +16272,7 @@
         <v>0.3939211368560791</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5005991458892822</v>
+        <v>0.5378825664520264</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -16340,7 +16340,7 @@
         <v>0.3942689895629883</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8875065445899963</v>
+        <v>0.5379003286361694</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -16408,7 +16408,7 @@
         <v>0.3959071636199951</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4985091090202332</v>
+        <v>0.4400861263275146</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -16476,7 +16476,7 @@
         <v>0.3949201107025146</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4643300175666809</v>
+        <v>0.6980137825012207</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -16544,7 +16544,7 @@
         <v>0.3929429054260254</v>
       </c>
       <c r="V237" t="n">
-        <v>0.480434387922287</v>
+        <v>0.4226258993148804</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -16612,7 +16612,7 @@
         <v>0.3893389701843262</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6014524102210999</v>
+        <v>0.6077430248260498</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -16680,7 +16680,7 @@
         <v>0.3937878608703613</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4795083701610565</v>
+        <v>0.48039710521698</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -16748,7 +16748,7 @@
         <v>0.3973958492279053</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4970614016056061</v>
+        <v>0.5379763245582581</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -16816,7 +16816,7 @@
         <v>0.3936131000518799</v>
       </c>
       <c r="V241" t="n">
-        <v>0.496884286403656</v>
+        <v>0.7962723970413208</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -16884,7 +16884,7 @@
         <v>0.981956958770752</v>
       </c>
       <c r="V242" t="n">
-        <v>0.8783919215202332</v>
+        <v>0.4036211967468262</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -16952,7 +16952,7 @@
         <v>0.910973072052002</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4842144250869751</v>
+        <v>0.3873438239097595</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -17020,7 +17020,7 @@
         <v>0.8742811679840088</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4837952256202698</v>
+        <v>0.4223143458366394</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -17088,7 +17088,7 @@
         <v>0.8757209777832031</v>
       </c>
       <c r="V245" t="n">
-        <v>1.135764241218567</v>
+        <v>0.4550627470016479</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -17156,7 +17156,7 @@
         <v>0.9272799491882324</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4965180456638336</v>
+        <v>0.6094298958778381</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -17224,7 +17224,7 @@
         <v>0.8690290451049805</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4357793033123016</v>
+        <v>0.4211025238037109</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -17292,7 +17292,7 @@
         <v>0.8619790077209473</v>
       </c>
       <c r="V248" t="n">
-        <v>0.9440472722053528</v>
+        <v>0.4203795194625854</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -17360,7 +17360,7 @@
         <v>0.8766250610351562</v>
       </c>
       <c r="V249" t="n">
-        <v>0.9005277752876282</v>
+        <v>0.5379660129547119</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -17428,7 +17428,7 @@
         <v>0.926807165145874</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3927924036979675</v>
+        <v>0.4224058389663696</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -17496,7 +17496,7 @@
         <v>0.8749849796295166</v>
       </c>
       <c r="V251" t="n">
-        <v>1.130226850509644</v>
+        <v>0.7040725350379944</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -17564,7 +17564,7 @@
         <v>0.873927116394043</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4647709727287292</v>
+        <v>0.6976108551025391</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -17632,7 +17632,7 @@
         <v>0.9045891761779785</v>
       </c>
       <c r="V253" t="n">
-        <v>1.097584843635559</v>
+        <v>0.5915652513504028</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -17700,7 +17700,7 @@
         <v>0.9227340221405029</v>
       </c>
       <c r="V254" t="n">
-        <v>0.3642899990081787</v>
+        <v>0.5378779172897339</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -17768,7 +17768,7 @@
         <v>0.8764941692352295</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4815987944602966</v>
+        <v>0.6840715408325195</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -17836,7 +17836,7 @@
         <v>0.9018480777740479</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4802355468273163</v>
+        <v>0.6980237364768982</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -17904,7 +17904,7 @@
         <v>0.8710629940032959</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4969454705715179</v>
+        <v>0.5161032676696777</v>
       </c>
     </row>
     <row r="258" spans="1:22">
@@ -17972,7 +17972,7 @@
         <v>0.9148938655853271</v>
       </c>
       <c r="V258" t="n">
-        <v>0.9527131915092468</v>
+        <v>0.8822028636932373</v>
       </c>
     </row>
     <row r="259" spans="1:22">
@@ -18040,7 +18040,7 @@
         <v>0.8792588710784912</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4570440649986267</v>
+        <v>0.8004910945892334</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -18108,7 +18108,7 @@
         <v>0.8634829521179199</v>
       </c>
       <c r="V260" t="n">
-        <v>0.8579066395759583</v>
+        <v>0.4795461297035217</v>
       </c>
     </row>
     <row r="261" spans="1:22">
@@ -18176,7 +18176,7 @@
         <v>0.8691620826721191</v>
       </c>
       <c r="V261" t="n">
-        <v>1.171615362167358</v>
+        <v>0.587807834148407</v>
       </c>
     </row>
     <row r="262" spans="1:22">
@@ -18244,7 +18244,7 @@
         <v>0.5913510322570801</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4967157244682312</v>
+        <v>0.4212579131126404</v>
       </c>
     </row>
     <row r="263" spans="1:22">
@@ -18312,7 +18312,7 @@
         <v>0.5278339385986328</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3939563035964966</v>
+        <v>0.4770028591156006</v>
       </c>
     </row>
     <row r="264" spans="1:22">
@@ -18380,7 +18380,7 @@
         <v>0.5258190631866455</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4860185086727142</v>
+        <v>0.5379610061645508</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -18448,7 +18448,7 @@
         <v>0.5403730869293213</v>
       </c>
       <c r="V265" t="n">
-        <v>0.8483072519302368</v>
+        <v>0.6181443929672241</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -18516,7 +18516,7 @@
         <v>0.5224969387054443</v>
       </c>
       <c r="V266" t="n">
-        <v>0.943426251411438</v>
+        <v>0.6282039284706116</v>
       </c>
     </row>
     <row r="267" spans="1:22">
@@ -18584,7 +18584,7 @@
         <v>0.5204629898071289</v>
       </c>
       <c r="V267" t="n">
-        <v>0.883090078830719</v>
+        <v>0.8876227140426636</v>
       </c>
     </row>
     <row r="268" spans="1:22">
@@ -18652,7 +18652,7 @@
         <v>0.5326411724090576</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8462549448013306</v>
+        <v>0.6980326771736145</v>
       </c>
     </row>
     <row r="269" spans="1:22">
@@ -18720,7 +18720,7 @@
         <v>0.526104211807251</v>
       </c>
       <c r="V269" t="n">
-        <v>0.8778876662254333</v>
+        <v>0.7903261780738831</v>
       </c>
     </row>
     <row r="270" spans="1:22">
@@ -18788,7 +18788,7 @@
         <v>0.5166599750518799</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3993807137012482</v>
+        <v>0.7958468198776245</v>
       </c>
     </row>
     <row r="271" spans="1:22">
@@ -18856,7 +18856,7 @@
         <v>0.5227890014648438</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3876835703849792</v>
+        <v>0.6046422719955444</v>
       </c>
     </row>
     <row r="272" spans="1:22">
@@ -18924,7 +18924,7 @@
         <v>0.5425238609313965</v>
       </c>
       <c r="V272" t="n">
-        <v>0.480331152677536</v>
+        <v>0.4554891586303711</v>
       </c>
     </row>
     <row r="273" spans="1:22">
@@ -18992,7 +18992,7 @@
         <v>0.5768120288848877</v>
       </c>
       <c r="V273" t="n">
-        <v>0.8806038498878479</v>
+        <v>0.4030694961547852</v>
       </c>
     </row>
     <row r="274" spans="1:22">
@@ -19060,7 +19060,7 @@
         <v>0.5250701904296875</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4869588017463684</v>
+        <v>0.607180655002594</v>
       </c>
     </row>
     <row r="275" spans="1:22">
@@ -19128,7 +19128,7 @@
         <v>0.5311338901519775</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3818826079368591</v>
+        <v>0.6464481353759766</v>
       </c>
     </row>
     <row r="276" spans="1:22">
@@ -19196,7 +19196,7 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4878308176994324</v>
+        <v>0.4552754163742065</v>
       </c>
     </row>
     <row r="277" spans="1:22">
@@ -19264,7 +19264,7 @@
         <v>0.5218639373779297</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4386959075927734</v>
+        <v>0.3871904611587524</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -19332,7 +19332,7 @@
         <v>0.5229361057281494</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4629968106746674</v>
+        <v>0.6179987788200378</v>
       </c>
     </row>
     <row r="279" spans="1:22">
@@ -19400,7 +19400,7 @@
         <v>0.522878885269165</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3642924129962921</v>
+        <v>0.366996169090271</v>
       </c>
     </row>
     <row r="280" spans="1:22">
@@ -19468,7 +19468,7 @@
         <v>0.5235879421234131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4587127566337585</v>
+        <v>0.6281869411468506</v>
       </c>
     </row>
     <row r="281" spans="1:22">
@@ -19536,7 +19536,7 @@
         <v>0.5196161270141602</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6016305088996887</v>
+        <v>0.4923393726348877</v>
       </c>
     </row>
     <row r="282" spans="1:22">
@@ -19604,7 +19604,7 @@
         <v>0.4017729759216309</v>
       </c>
       <c r="V282" t="n">
-        <v>0.8473581671714783</v>
+        <v>0.378571629524231</v>
       </c>
     </row>
     <row r="283" spans="1:22">
@@ -19672,7 +19672,7 @@
         <v>0.398914098739624</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6728619933128357</v>
+        <v>0.5538752675056458</v>
       </c>
     </row>
     <row r="284" spans="1:22">
@@ -19740,7 +19740,7 @@
         <v>0.4474029541015625</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4997285604476929</v>
+        <v>0.4034273028373718</v>
       </c>
     </row>
     <row r="285" spans="1:22">
@@ -19808,7 +19808,7 @@
         <v>0.39711594581604</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8701082468032837</v>
+        <v>0.5380850434303284</v>
       </c>
     </row>
     <row r="286" spans="1:22">
@@ -19876,7 +19876,7 @@
         <v>0.3987820148468018</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8838968276977539</v>
+        <v>0.5692344903945923</v>
       </c>
     </row>
     <row r="287" spans="1:22">
@@ -19944,7 +19944,7 @@
         <v>0.3974170684814453</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8646079301834106</v>
+        <v>0.5378905534744263</v>
       </c>
     </row>
     <row r="288" spans="1:22">
@@ -20012,7 +20012,7 @@
         <v>0.3986580371856689</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8953418135643005</v>
+        <v>0.36097651720047</v>
       </c>
     </row>
     <row r="289" spans="1:22">
@@ -20080,7 +20080,7 @@
         <v>0.4135520458221436</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3938864767551422</v>
+        <v>0.4207318425178528</v>
       </c>
     </row>
     <row r="290" spans="1:22">
@@ -20148,7 +20148,7 @@
         <v>0.3954870700836182</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3885806500911713</v>
+        <v>0.5890090465545654</v>
       </c>
     </row>
     <row r="291" spans="1:22">
@@ -20216,7 +20216,7 @@
         <v>0.3995430469512939</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4817523956298828</v>
+        <v>0.4005610942840576</v>
       </c>
     </row>
     <row r="292" spans="1:22">
@@ -20284,7 +20284,7 @@
         <v>0.4001998901367188</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4396573007106781</v>
+        <v>0.480150043964386</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -20352,7 +20352,7 @@
         <v>0.3985741138458252</v>
       </c>
       <c r="V293" t="n">
-        <v>0.3635697960853577</v>
+        <v>0.6571362614631653</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -20420,7 +20420,7 @@
         <v>0.3945510387420654</v>
       </c>
       <c r="V294" t="n">
-        <v>0.3976974487304688</v>
+        <v>0.4833751916885376</v>
       </c>
     </row>
     <row r="295" spans="1:22">
@@ -20488,7 +20488,7 @@
         <v>0.403709888458252</v>
       </c>
       <c r="V295" t="n">
-        <v>0.519260048866272</v>
+        <v>0.7899690866470337</v>
       </c>
     </row>
     <row r="296" spans="1:22">
@@ -20556,7 +20556,7 @@
         <v>0.3948919773101807</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6012758612632751</v>
+        <v>0.4784874320030212</v>
       </c>
     </row>
     <row r="297" spans="1:22">
@@ -20624,7 +20624,7 @@
         <v>0.4047031402587891</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8424842953681946</v>
+        <v>0.3610904812812805</v>
       </c>
     </row>
     <row r="298" spans="1:22">
@@ -20692,7 +20692,7 @@
         <v>0.39634108543396</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6729607582092285</v>
+        <v>0.4792518615722656</v>
       </c>
     </row>
     <row r="299" spans="1:22">
@@ -20760,7 +20760,7 @@
         <v>0.3985579013824463</v>
       </c>
       <c r="V299" t="n">
-        <v>1.133118271827698</v>
+        <v>0.4802040457725525</v>
       </c>
     </row>
     <row r="300" spans="1:22">
@@ -20828,7 +20828,7 @@
         <v>0.3948500156402588</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4862564504146576</v>
+        <v>0.6980226039886475</v>
       </c>
     </row>
     <row r="301" spans="1:22">
@@ -20896,7 +20896,7 @@
         <v>0.3982090950012207</v>
       </c>
       <c r="V301" t="n">
-        <v>0.8444255590438843</v>
+        <v>0.8843103051185608</v>
       </c>
     </row>
     <row r="302" spans="1:22">

--- a/data/scheduling_DNN/predict/result17.xlsx
+++ b/data/scheduling_DNN/predict/result17.xlsx
@@ -564,7 +564,7 @@
         <v>1.278625011444092</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5612205266952515</v>
+        <v>0.975181519985199</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -632,7 +632,7 @@
         <v>0.9315309524536133</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5379694104194641</v>
+        <v>0.6990503668785095</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -700,7 +700,7 @@
         <v>0.8728039264678955</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5881173610687256</v>
+        <v>0.3507759571075439</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -768,7 +768,7 @@
         <v>0.8783209323883057</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8844614028930664</v>
+        <v>0.5946947336196899</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -836,7 +836,7 @@
         <v>0.9347138404846191</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4850061535835266</v>
+        <v>0.8000637888908386</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -904,7 +904,7 @@
         <v>0.8745720386505127</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5380626916885376</v>
+        <v>0.371780127286911</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -972,7 +972,7 @@
         <v>0.8714470863342285</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4398151040077209</v>
+        <v>0.5870922207832336</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1040,7 +1040,7 @@
         <v>0.8679490089416504</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4676487445831299</v>
+        <v>0.6538190245628357</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1108,7 +1108,7 @@
         <v>0.9213850498199463</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4038267731666565</v>
+        <v>0.5247950553894043</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1176,7 +1176,7 @@
         <v>0.8783540725708008</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5378709435462952</v>
+        <v>0.4615108966827393</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1244,7 +1244,7 @@
         <v>0.8560359477996826</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5379790663719177</v>
+        <v>0.4176340699195862</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1312,7 +1312,7 @@
         <v>0.8662741184234619</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5378905534744263</v>
+        <v>0.4897371828556061</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1380,7 +1380,7 @@
         <v>0.9164319038391113</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4425503611564636</v>
+        <v>0.8004262447357178</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1448,7 +1448,7 @@
         <v>0.9046680927276611</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8878307342529297</v>
+        <v>0.8381872177124023</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1516,7 +1516,7 @@
         <v>0.8792328834533691</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5903171300888062</v>
+        <v>0.3507460951805115</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1584,7 +1584,7 @@
         <v>0.9291579723358154</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4834600687026978</v>
+        <v>0.5248074531555176</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1652,7 +1652,7 @@
         <v>0.9192140102386475</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6487356424331665</v>
+        <v>0.6547797918319702</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1720,7 +1720,7 @@
         <v>0.8607621192932129</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6566144227981567</v>
+        <v>0.6863111853599548</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1788,7 +1788,7 @@
         <v>0.9078121185302734</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6536902785301208</v>
+        <v>0.372467577457428</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1856,7 +1856,7 @@
         <v>1.051532983779907</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7939709424972534</v>
+        <v>0.4906497597694397</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1924,7 +1924,7 @@
         <v>0.6805069446563721</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5570175051689148</v>
+        <v>0.3507673740386963</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1992,7 +1992,7 @@
         <v>0.5418510437011719</v>
       </c>
       <c r="V23" t="n">
-        <v>0.401404857635498</v>
+        <v>0.9760792851448059</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2060,7 +2060,7 @@
         <v>0.5207180976867676</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5887453556060791</v>
+        <v>0.490329772233963</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2128,7 +2128,7 @@
         <v>0.5262298583984375</v>
       </c>
       <c r="V25" t="n">
-        <v>0.477519690990448</v>
+        <v>0.7080770134925842</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2196,7 +2196,7 @@
         <v>0.5306339263916016</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6181319952011108</v>
+        <v>0.503772497177124</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2264,7 +2264,7 @@
         <v>0.5293750762939453</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4223676919937134</v>
+        <v>0.4634905457496643</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2332,7 +2332,7 @@
         <v>0.5149459838867188</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6539028882980347</v>
+        <v>0.652911365032196</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2400,7 +2400,7 @@
         <v>0.5228018760681152</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3610076904296875</v>
+        <v>0.3507806360721588</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2468,7 +2468,7 @@
         <v>0.5388278961181641</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7839659452438354</v>
+        <v>0.5044592022895813</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2536,7 +2536,7 @@
         <v>0.514962911605835</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7097801566123962</v>
+        <v>0.7080433368682861</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2604,7 +2604,7 @@
         <v>0.5909121036529541</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3609938621520996</v>
+        <v>0.4908333420753479</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2672,7 +2672,7 @@
         <v>0.51580810546875</v>
       </c>
       <c r="V33" t="n">
-        <v>0.7011902928352356</v>
+        <v>0.5825173258781433</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2740,7 +2740,7 @@
         <v>0.5174050331115723</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4223841428756714</v>
+        <v>0.4904916286468506</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2808,7 +2808,7 @@
         <v>0.510145902633667</v>
       </c>
       <c r="V35" t="n">
-        <v>0.590424120426178</v>
+        <v>0.5258046388626099</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2876,7 +2876,7 @@
         <v>0.5142719745635986</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4550826549530029</v>
+        <v>0.3470315337181091</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2944,7 +2944,7 @@
         <v>0.5140159130096436</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5378856658935547</v>
+        <v>0.5245808959007263</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3012,7 +3012,7 @@
         <v>0.5164780616760254</v>
       </c>
       <c r="V38" t="n">
-        <v>0.438521683216095</v>
+        <v>0.7081183791160583</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3080,7 +3080,7 @@
         <v>0.5160830020904541</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4225040078163147</v>
+        <v>0.417630136013031</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3148,7 +3148,7 @@
         <v>0.5140771865844727</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7100529074668884</v>
+        <v>0.5248926877975464</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3216,7 +3216,7 @@
         <v>0.5185961723327637</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3867952823638916</v>
+        <v>0.5826250314712524</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3284,7 +3284,7 @@
         <v>0.404655933380127</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4211761355400085</v>
+        <v>0.3507409393787384</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3352,7 +3352,7 @@
         <v>0.4719488620758057</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4384316802024841</v>
+        <v>0.490833193063736</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3420,7 +3420,7 @@
         <v>0.3866188526153564</v>
       </c>
       <c r="V44" t="n">
-        <v>0.7102096080780029</v>
+        <v>0.802417516708374</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3488,7 +3488,7 @@
         <v>0.3858962059020996</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3610464334487915</v>
+        <v>0.9755698442459106</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3556,7 +3556,7 @@
         <v>0.3848860263824463</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4849292635917664</v>
+        <v>0.5756250023841858</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3624,7 +3624,7 @@
         <v>0.3969569206237793</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6095840334892273</v>
+        <v>0.3516814708709717</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3692,7 +3692,7 @@
         <v>0.4113471508026123</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3866152763366699</v>
+        <v>0.8386415839195251</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3760,7 +3760,7 @@
         <v>0.4282140731811523</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5888757705688477</v>
+        <v>0.7035881876945496</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3828,7 +3828,7 @@
         <v>0.3858199119567871</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6896145939826965</v>
+        <v>0.4176654517650604</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3896,7 +3896,7 @@
         <v>0.3868610858917236</v>
       </c>
       <c r="V51" t="n">
-        <v>0.440751314163208</v>
+        <v>0.5908601880073547</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3964,7 +3964,7 @@
         <v>0.3860290050506592</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7030863761901855</v>
+        <v>0.6992233991622925</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4032,7 +4032,7 @@
         <v>0.3862721920013428</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5379613637924194</v>
+        <v>0.3507649004459381</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4100,7 +4100,7 @@
         <v>0.3878300189971924</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4425290822982788</v>
+        <v>0.4903536438941956</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4168,7 +4168,7 @@
         <v>0.3859210014343262</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6516602039337158</v>
+        <v>0.5244113802909851</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4236,7 +4236,7 @@
         <v>0.409235954284668</v>
       </c>
       <c r="V56" t="n">
-        <v>0.703600287437439</v>
+        <v>0.5263315439224243</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4304,7 +4304,7 @@
         <v>0.3863928318023682</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6954771280288696</v>
+        <v>0.6521576642990112</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4372,7 +4372,7 @@
         <v>0.3872580528259277</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5618018507957458</v>
+        <v>0.3782425820827484</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4440,7 +4440,7 @@
         <v>0.3912420272827148</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4553601741790771</v>
+        <v>0.8046457171440125</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4508,7 +4508,7 @@
         <v>0.3889451026916504</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6180075407028198</v>
+        <v>0.802345335483551</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4576,7 +4576,7 @@
         <v>0.3869929313659668</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4890546202659607</v>
+        <v>0.4906106293201447</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4644,7 +4644,7 @@
         <v>0.9583940505981445</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4035907387733459</v>
+        <v>0.5245877504348755</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4712,7 +4712,7 @@
         <v>0.9060430526733398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6980346441268921</v>
+        <v>0.4904197454452515</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4780,7 +4780,7 @@
         <v>0.8759150505065918</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4768378734588623</v>
+        <v>0.4903136193752289</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4848,7 +4848,7 @@
         <v>0.8710899353027344</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5659052133560181</v>
+        <v>0.5406032800674438</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4916,7 +4916,7 @@
         <v>0.882378101348877</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6894387602806091</v>
+        <v>0.4638231992721558</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4984,7 +4984,7 @@
         <v>0.8734641075134277</v>
       </c>
       <c r="V67" t="n">
-        <v>0.7033109068870544</v>
+        <v>0.8341045379638672</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5052,7 +5052,7 @@
         <v>0.8694069385528564</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5611301064491272</v>
+        <v>0.3712720274925232</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5120,7 +5120,7 @@
         <v>0.863152027130127</v>
       </c>
       <c r="V69" t="n">
-        <v>0.7839377522468567</v>
+        <v>0.4175510704517365</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5188,7 +5188,7 @@
         <v>0.8647668361663818</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5858365893363953</v>
+        <v>0.8414528369903564</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5256,7 +5256,7 @@
         <v>0.8711988925933838</v>
       </c>
       <c r="V71" t="n">
-        <v>0.537911593914032</v>
+        <v>0.5821697115898132</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5324,7 +5324,7 @@
         <v>0.8940391540527344</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5879279971122742</v>
+        <v>0.3785795569419861</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5392,7 +5392,7 @@
         <v>0.865178108215332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6077727079391479</v>
+        <v>0.3515170216560364</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5460,7 +5460,7 @@
         <v>0.8620350360870361</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5887073874473572</v>
+        <v>0.654336154460907</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5528,7 +5528,7 @@
         <v>0.8610241413116455</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4765533804893494</v>
+        <v>0.5054473876953125</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5596,7 +5596,7 @@
         <v>0.8656890392303467</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5912466049194336</v>
+        <v>0.6507607698440552</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.8706119060516357</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6485797166824341</v>
+        <v>0.5243822336196899</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>0.8628010749816895</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4802520871162415</v>
+        <v>0.4175422191619873</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5800,7 +5800,7 @@
         <v>0.8727540969848633</v>
       </c>
       <c r="V79" t="n">
-        <v>0.438488781452179</v>
+        <v>0.5762282013893127</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5868,7 +5868,7 @@
         <v>0.8489360809326172</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4718003869056702</v>
+        <v>0.9755939245223999</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5936,7 +5936,7 @@
         <v>0.857429027557373</v>
       </c>
       <c r="V81" t="n">
-        <v>0.7098118662834167</v>
+        <v>0.4614620208740234</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6004,7 +6004,7 @@
         <v>0.5475618839263916</v>
       </c>
       <c r="V82" t="n">
-        <v>0.689443826675415</v>
+        <v>0.8027225732803345</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6072,7 +6072,7 @@
         <v>0.5223798751831055</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5662949681282043</v>
+        <v>0.4175451099872589</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6140,7 +6140,7 @@
         <v>0.5158839225769043</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8804707527160645</v>
+        <v>0.6538257002830505</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6208,7 +6208,7 @@
         <v>0.5178000926971436</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4796501398086548</v>
+        <v>0.5050196051597595</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6276,7 +6276,7 @@
         <v>0.5120930671691895</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3609644174575806</v>
+        <v>0.6543192863464355</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.5679559707641602</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4408747553825378</v>
+        <v>0.6535108089447021</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6412,7 +6412,7 @@
         <v>0.517035961151123</v>
       </c>
       <c r="V88" t="n">
-        <v>0.480705738067627</v>
+        <v>0.4175667762756348</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6480,7 +6480,7 @@
         <v>0.5192339420318604</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6981954574584961</v>
+        <v>0.5930236577987671</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6548,7 +6548,7 @@
         <v>0.5150690078735352</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4795900583267212</v>
+        <v>0.5051093101501465</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6616,7 +6616,7 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6566483378410339</v>
+        <v>0.838257908821106</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6684,7 +6684,7 @@
         <v>0.5186920166015625</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5854825973510742</v>
+        <v>0.5052164793014526</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6752,7 +6752,7 @@
         <v>0.5181910991668701</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4805735945701599</v>
+        <v>0.5251706838607788</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6820,7 +6820,7 @@
         <v>0.5129578113555908</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5378978252410889</v>
+        <v>0.9755281805992126</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6888,7 +6888,7 @@
         <v>0.5182981491088867</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4227635264396667</v>
+        <v>0.5045288801193237</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6956,7 +6956,7 @@
         <v>0.5157368183135986</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3785778284072876</v>
+        <v>0.5036088228225708</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7024,7 +7024,7 @@
         <v>0.517038106918335</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3609535694122314</v>
+        <v>0.6516773104667664</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7092,7 +7092,7 @@
         <v>0.5660309791564941</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8844561576843262</v>
+        <v>0.6992213726043701</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7160,7 +7160,7 @@
         <v>0.5193438529968262</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4222974181175232</v>
+        <v>0.4175129532814026</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7228,7 +7228,7 @@
         <v>0.5185110569000244</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4228395819664001</v>
+        <v>0.4615180790424347</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7296,7 +7296,7 @@
         <v>0.5145349502563477</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4399700164794922</v>
+        <v>0.6538669466972351</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7364,7 +7364,7 @@
         <v>0.3960089683532715</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4902856349945068</v>
+        <v>0.4176304936408997</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7432,7 +7432,7 @@
         <v>0.3945181369781494</v>
       </c>
       <c r="V103" t="n">
-        <v>0.422416090965271</v>
+        <v>0.4176599979400635</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7500,7 +7500,7 @@
         <v>0.4094679355621338</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4054241180419922</v>
+        <v>0.4691958427429199</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7568,7 +7568,7 @@
         <v>0.402616024017334</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4810751676559448</v>
+        <v>0.417652815580368</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7636,7 +7636,7 @@
         <v>0.3881978988647461</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8854296207427979</v>
+        <v>0.490907609462738</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7704,7 +7704,7 @@
         <v>0.3875870704650879</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6095789670944214</v>
+        <v>0.4781287908554077</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7772,7 +7772,7 @@
         <v>0.3868029117584229</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3868059515953064</v>
+        <v>0.3887981772422791</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7840,7 +7840,7 @@
         <v>0.3858330249786377</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4788762331008911</v>
+        <v>0.6535565853118896</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7908,7 +7908,7 @@
         <v>0.4380300045013428</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4226717352867126</v>
+        <v>0.4907905161380768</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7976,7 +7976,7 @@
         <v>0.3926200866699219</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4844722747802734</v>
+        <v>0.97564297914505</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8044,7 +8044,7 @@
         <v>0.4199950695037842</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4806921482086182</v>
+        <v>0.4904178380966187</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8112,7 +8112,7 @@
         <v>0.3880131244659424</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6865060329437256</v>
+        <v>0.3719484806060791</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8180,7 +8180,7 @@
         <v>0.3906128406524658</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6980321407318115</v>
+        <v>0.3507504463195801</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8248,7 +8248,7 @@
         <v>0.390388011932373</v>
       </c>
       <c r="V115" t="n">
-        <v>0.7898924350738525</v>
+        <v>0.3720111846923828</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8316,7 +8316,7 @@
         <v>0.4383928775787354</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6240726113319397</v>
+        <v>0.3507537245750427</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8384,7 +8384,7 @@
         <v>0.3909389972686768</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4223513603210449</v>
+        <v>0.8020263910293579</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8452,7 +8452,7 @@
         <v>0.4151778221130371</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3786981105804443</v>
+        <v>0.6525439023971558</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8520,7 +8520,7 @@
         <v>0.3895719051361084</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4224810004234314</v>
+        <v>0.4638742208480835</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8588,7 +8588,7 @@
         <v>0.3895649909973145</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4719034433364868</v>
+        <v>0.8028735518455505</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8656,7 +8656,7 @@
         <v>0.390326976776123</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3610337376594543</v>
+        <v>0.8047276735305786</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8724,7 +8724,7 @@
         <v>0.9526019096374512</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6074541807174683</v>
+        <v>0.6992341279983521</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8792,7 +8792,7 @@
         <v>0.9093990325927734</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8845577836036682</v>
+        <v>0.5906542539596558</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8860,7 +8860,7 @@
         <v>0.8593389987945557</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4068009853363037</v>
+        <v>0.417663037776947</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8928,7 +8928,7 @@
         <v>0.8695569038391113</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6896112561225891</v>
+        <v>0.8045668601989746</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8996,7 +8996,7 @@
         <v>0.9181571006774902</v>
       </c>
       <c r="V126" t="n">
-        <v>0.8856419324874878</v>
+        <v>0.9751924276351929</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>0.8750870227813721</v>
       </c>
       <c r="V127" t="n">
-        <v>0.7900906205177307</v>
+        <v>0.4638242721557617</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9132,7 +9132,7 @@
         <v>0.8594310283660889</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5379487872123718</v>
+        <v>0.4176262617111206</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9200,7 +9200,7 @@
         <v>0.8594059944152832</v>
       </c>
       <c r="V129" t="n">
-        <v>0.455345094203949</v>
+        <v>0.5042588710784912</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9268,7 +9268,7 @@
         <v>0.9248340129852295</v>
       </c>
       <c r="V130" t="n">
-        <v>0.8805574774742126</v>
+        <v>0.801636278629303</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9336,7 +9336,7 @@
         <v>0.8627960681915283</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4721607565879822</v>
+        <v>0.9757455587387085</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9404,7 +9404,7 @@
         <v>0.8653979301452637</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6106979846954346</v>
+        <v>0.4176275134086609</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9472,7 +9472,7 @@
         <v>0.8747179508209229</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5379722714424133</v>
+        <v>0.5762905478477478</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9540,7 +9540,7 @@
         <v>0.9119360446929932</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5905375480651855</v>
+        <v>0.8337250947952271</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9608,7 +9608,7 @@
         <v>0.8794970512390137</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3665919899940491</v>
+        <v>0.5256670713424683</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9676,7 +9676,7 @@
         <v>0.8631889820098877</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3611143827438354</v>
+        <v>0.9757341742515564</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9744,7 +9744,7 @@
         <v>0.859199047088623</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4408711791038513</v>
+        <v>0.3794727325439453</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9812,7 +9812,7 @@
         <v>0.9220519065856934</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5853784084320068</v>
+        <v>0.3783526420593262</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -9880,7 +9880,7 @@
         <v>0.8635120391845703</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5874905586242676</v>
+        <v>0.490370512008667</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -9948,7 +9948,7 @@
         <v>0.9157559871673584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.475893497467041</v>
+        <v>0.4908800721168518</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10016,7 +10016,7 @@
         <v>0.8579831123352051</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5379284620285034</v>
+        <v>0.3518537282943726</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10084,7 +10084,7 @@
         <v>0.5923888683319092</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3609153628349304</v>
+        <v>0.3720992505550385</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10152,7 +10152,7 @@
         <v>0.5218830108642578</v>
       </c>
       <c r="V143" t="n">
-        <v>0.689429759979248</v>
+        <v>0.5247882604598999</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10220,7 +10220,7 @@
         <v>0.5184571743011475</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4851488471031189</v>
+        <v>0.4174875020980835</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10288,7 +10288,7 @@
         <v>0.5126571655273438</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4029312133789062</v>
+        <v>0.6928427815437317</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10356,7 +10356,7 @@
         <v>0.5166079998016357</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5552331805229187</v>
+        <v>0.4637985229492188</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10424,7 +10424,7 @@
         <v>0.5250978469848633</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4757353663444519</v>
+        <v>0.5760191679000854</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10492,7 +10492,7 @@
         <v>0.5211939811706543</v>
       </c>
       <c r="V148" t="n">
-        <v>0.473851203918457</v>
+        <v>0.5046958923339844</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10560,7 +10560,7 @@
         <v>0.5191619396209717</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4211356043815613</v>
+        <v>0.5257673263549805</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10628,7 +10628,7 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6080566644668579</v>
+        <v>0.8341859579086304</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10696,7 +10696,7 @@
         <v>0.5128638744354248</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6077224016189575</v>
+        <v>0.3721317946910858</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10764,7 +10764,7 @@
         <v>0.5150089263916016</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3887149095535278</v>
+        <v>0.5050980448722839</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10832,7 +10832,7 @@
         <v>0.5721690654754639</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4229405522346497</v>
+        <v>0.3471212387084961</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -10900,7 +10900,7 @@
         <v>0.5184500217437744</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3609561920166016</v>
+        <v>0.4638285040855408</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10968,7 +10968,7 @@
         <v>0.5217239856719971</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8822290897369385</v>
+        <v>0.3507513999938965</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11036,7 +11036,7 @@
         <v>0.5196211338043213</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4384209513664246</v>
+        <v>0.6862813830375671</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11104,7 +11104,7 @@
         <v>0.5197439193725586</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4712569713592529</v>
+        <v>0.4175398349761963</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11172,7 +11172,7 @@
         <v>0.5163350105285645</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4223563671112061</v>
+        <v>0.5762007236480713</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11240,7 +11240,7 @@
         <v>0.5179429054260254</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3877466320991516</v>
+        <v>0.8015877604484558</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11308,7 +11308,7 @@
         <v>0.5239419937133789</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6075444221496582</v>
+        <v>0.5251024961471558</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11376,7 +11376,7 @@
         <v>0.5159420967102051</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3657307028770447</v>
+        <v>0.4614459872245789</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11444,7 +11444,7 @@
         <v>0.3954710960388184</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6075578927993774</v>
+        <v>0.3783542811870575</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11512,7 +11512,7 @@
         <v>0.3907070159912109</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5904473066329956</v>
+        <v>0.6535240411758423</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11580,7 +11580,7 @@
         <v>0.4388830661773682</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4228060841560364</v>
+        <v>0.3717378973960876</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11648,7 +11648,7 @@
         <v>0.3931200504302979</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3799396157264709</v>
+        <v>0.8023541569709778</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11716,7 +11716,7 @@
         <v>0.3911409378051758</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4854723215103149</v>
+        <v>0.6532728672027588</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11784,7 +11784,7 @@
         <v>0.3930919170379639</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6490634083747864</v>
+        <v>0.5823945999145508</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -11852,7 +11852,7 @@
         <v>0.3961279392242432</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5172411203384399</v>
+        <v>0.4611299932003021</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -11920,7 +11920,7 @@
         <v>0.3914148807525635</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5580369234085083</v>
+        <v>0.3507598340511322</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11988,7 +11988,7 @@
         <v>0.3975849151611328</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3671503067016602</v>
+        <v>0.6928392648696899</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12056,7 +12056,7 @@
         <v>0.3904650211334229</v>
       </c>
       <c r="V171" t="n">
-        <v>0.7101702690124512</v>
+        <v>0.8004398941993713</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12124,7 +12124,7 @@
         <v>0.3915770053863525</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3666130304336548</v>
+        <v>0.4903903901576996</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12192,7 +12192,7 @@
         <v>0.3938140869140625</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3648877739906311</v>
+        <v>0.6533396244049072</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12260,7 +12260,7 @@
         <v>0.3942358493804932</v>
       </c>
       <c r="V174" t="n">
-        <v>0.7964216470718384</v>
+        <v>0.4176499843597412</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -12328,7 +12328,7 @@
         <v>0.3874709606170654</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4843006730079651</v>
+        <v>0.6992238759994507</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -12396,7 +12396,7 @@
         <v>0.3920910358428955</v>
       </c>
       <c r="V176" t="n">
-        <v>0.8805928230285645</v>
+        <v>0.4176395535469055</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.4573519229888916</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4214755892753601</v>
+        <v>0.5822299122810364</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -12532,7 +12532,7 @@
         <v>0.3923280239105225</v>
       </c>
       <c r="V178" t="n">
-        <v>0.8854069709777832</v>
+        <v>0.3720027506351471</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>0.3946781158447266</v>
       </c>
       <c r="V179" t="n">
-        <v>0.8821443915367126</v>
+        <v>0.5760207772254944</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -12668,7 +12668,7 @@
         <v>0.3937029838562012</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6984093189239502</v>
+        <v>0.8046363592147827</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -12736,7 +12736,7 @@
         <v>0.4113798141479492</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6077646017074585</v>
+        <v>0.3895606100559235</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>0.8773300647735596</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6076244711875916</v>
+        <v>0.800457239151001</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -12872,7 +12872,7 @@
         <v>0.9169509410858154</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6058166027069092</v>
+        <v>0.9755766987800598</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -12940,7 +12940,7 @@
         <v>0.8726620674133301</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4033211469650269</v>
+        <v>0.524641752243042</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13008,7 +13008,7 @@
         <v>0.8765661716461182</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4227662682533264</v>
+        <v>0.975210964679718</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13076,7 +13076,7 @@
         <v>0.8574149608612061</v>
       </c>
       <c r="V186" t="n">
-        <v>0.591393768787384</v>
+        <v>0.35074183344841</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13144,7 +13144,7 @@
         <v>0.8837149143218994</v>
       </c>
       <c r="V187" t="n">
-        <v>0.7902021408081055</v>
+        <v>0.8296811580657959</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13212,7 +13212,7 @@
         <v>0.8662068843841553</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6086816191673279</v>
+        <v>0.4692052006721497</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13280,7 +13280,7 @@
         <v>0.8682329654693604</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5620260834693909</v>
+        <v>0.590633749961853</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13348,7 +13348,7 @@
         <v>0.8881559371948242</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3609372973442078</v>
+        <v>0.8022168874740601</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -13416,7 +13416,7 @@
         <v>0.8926899433135986</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3867775201797485</v>
+        <v>0.5947228074073792</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -13484,7 +13484,7 @@
         <v>0.8605639934539795</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4837238192558289</v>
+        <v>0.8339731693267822</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -13552,7 +13552,7 @@
         <v>0.8759949207305908</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6563281416893005</v>
+        <v>0.4176348447799683</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -13620,7 +13620,7 @@
         <v>0.9239978790283203</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6587436199188232</v>
+        <v>0.4176727831363678</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -13688,7 +13688,7 @@
         <v>0.8740930557250977</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5379091501235962</v>
+        <v>0.5763152837753296</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -13756,7 +13756,7 @@
         <v>0.8621790409088135</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4226645827293396</v>
+        <v>0.4614622294902802</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -13824,7 +13824,7 @@
         <v>0.8700771331787109</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6490487456321716</v>
+        <v>0.3778701424598694</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -13892,7 +13892,7 @@
         <v>0.9252641201019287</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5881587862968445</v>
+        <v>0.4638583362102509</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -13960,7 +13960,7 @@
         <v>0.8725690841674805</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5606808662414551</v>
+        <v>0.6533820629119873</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14028,7 +14028,7 @@
         <v>0.880234956741333</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3647720217704773</v>
+        <v>0.3470365405082703</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14096,7 +14096,7 @@
         <v>1.401460886001587</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8821812868118286</v>
+        <v>0.417653352022171</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14164,7 +14164,7 @@
         <v>0.5744049549102783</v>
       </c>
       <c r="V202" t="n">
-        <v>0.3611395955085754</v>
+        <v>0.4638172388076782</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14232,7 +14232,7 @@
         <v>0.5393190383911133</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4554443955421448</v>
+        <v>0.9755959510803223</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14300,7 +14300,7 @@
         <v>0.5370819568634033</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6047618389129639</v>
+        <v>0.3783480226993561</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14368,7 +14368,7 @@
         <v>0.5194170475006104</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6051912903785706</v>
+        <v>0.4634853303432465</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -14436,7 +14436,7 @@
         <v>0.5141060352325439</v>
       </c>
       <c r="V206" t="n">
-        <v>0.7040767669677734</v>
+        <v>0.5248144865036011</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -14504,7 +14504,7 @@
         <v>0.5426201820373535</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5562270879745483</v>
+        <v>0.8371423482894897</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -14572,7 +14572,7 @@
         <v>0.5196869373321533</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4226563572883606</v>
+        <v>0.8012609481811523</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -14640,7 +14640,7 @@
         <v>0.5132639408111572</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6086897850036621</v>
+        <v>0.6926920413970947</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -14708,7 +14708,7 @@
         <v>0.5155079364776611</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4223188161849976</v>
+        <v>0.505433976650238</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -14776,7 +14776,7 @@
         <v>0.5219659805297852</v>
       </c>
       <c r="V211" t="n">
-        <v>0.64891517162323</v>
+        <v>0.4907757639884949</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -14844,7 +14844,7 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6077598333358765</v>
+        <v>0.3720975518226624</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -14912,7 +14912,7 @@
         <v>0.5533528327941895</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3609596490859985</v>
+        <v>0.7035837173461914</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -14980,7 +14980,7 @@
         <v>0.5215380191802979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4870217442512512</v>
+        <v>0.6546903848648071</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -15048,7 +15048,7 @@
         <v>0.5205159187316895</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4427711367607117</v>
+        <v>0.4634823501110077</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -15116,7 +15116,7 @@
         <v>0.521075963973999</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5380772948265076</v>
+        <v>0.5762090086936951</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -15184,7 +15184,7 @@
         <v>0.5170080661773682</v>
       </c>
       <c r="V217" t="n">
-        <v>0.7033395767211914</v>
+        <v>0.8031194806098938</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -15252,7 +15252,7 @@
         <v>0.5734741687774658</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4411333203315735</v>
+        <v>0.405481219291687</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -15320,7 +15320,7 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4888110160827637</v>
+        <v>0.3719204664230347</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -15388,7 +15388,7 @@
         <v>0.522554874420166</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4844552874565125</v>
+        <v>0.4176277816295624</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -15456,7 +15456,7 @@
         <v>0.5203990936279297</v>
       </c>
       <c r="V221" t="n">
-        <v>0.3671593070030212</v>
+        <v>0.8004674911499023</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -15524,7 +15524,7 @@
         <v>0.3890118598937988</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6556221842765808</v>
+        <v>0.5049243569374084</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -15592,7 +15592,7 @@
         <v>0.3902950286865234</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3609108924865723</v>
+        <v>0.5762016177177429</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -15660,7 +15660,7 @@
         <v>0.4469938278198242</v>
       </c>
       <c r="V224" t="n">
-        <v>0.480116069316864</v>
+        <v>0.3507492542266846</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -15728,7 +15728,7 @@
         <v>0.392413854598999</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3609158396720886</v>
+        <v>0.6537992358207703</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -15796,7 +15796,7 @@
         <v>0.390031099319458</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5887113809585571</v>
+        <v>0.6927068829536438</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -15864,7 +15864,7 @@
         <v>0.3930361270904541</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4914345741271973</v>
+        <v>0.8022716045379639</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -15932,7 +15932,7 @@
         <v>0.39192795753479</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3859796524047852</v>
+        <v>0.576347291469574</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16000,7 +16000,7 @@
         <v>0.3957130908966064</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4868853092193604</v>
+        <v>0.4176601767539978</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16068,7 +16068,7 @@
         <v>0.3933560848236084</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4841680526733398</v>
+        <v>0.4907099008560181</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16136,7 +16136,7 @@
         <v>0.392982006072998</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4801205992698669</v>
+        <v>0.3789054155349731</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16204,7 +16204,7 @@
         <v>0.4005930423736572</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5379217863082886</v>
+        <v>0.3718892931938171</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -16272,7 +16272,7 @@
         <v>0.3939211368560791</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5378825664520264</v>
+        <v>0.653571605682373</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -16340,7 +16340,7 @@
         <v>0.3942689895629883</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5379003286361694</v>
+        <v>0.699232816696167</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -16408,7 +16408,7 @@
         <v>0.3959071636199951</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4400861263275146</v>
+        <v>0.708076536655426</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -16476,7 +16476,7 @@
         <v>0.3949201107025146</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6980137825012207</v>
+        <v>0.6992434859275818</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -16544,7 +16544,7 @@
         <v>0.3929429054260254</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4226258993148804</v>
+        <v>0.5051230192184448</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -16612,7 +16612,7 @@
         <v>0.3893389701843262</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6077430248260498</v>
+        <v>0.5870838761329651</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -16680,7 +16680,7 @@
         <v>0.3937878608703613</v>
       </c>
       <c r="V239" t="n">
-        <v>0.48039710521698</v>
+        <v>0.4909484088420868</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -16748,7 +16748,7 @@
         <v>0.3973958492279053</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5379763245582581</v>
+        <v>0.6533357501029968</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -16816,7 +16816,7 @@
         <v>0.3936131000518799</v>
       </c>
       <c r="V241" t="n">
-        <v>0.7962723970413208</v>
+        <v>0.417632520198822</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -16884,7 +16884,7 @@
         <v>0.981956958770752</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4036211967468262</v>
+        <v>0.6533793210983276</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -16952,7 +16952,7 @@
         <v>0.910973072052002</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3873438239097595</v>
+        <v>0.5826015472412109</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -17020,7 +17020,7 @@
         <v>0.8742811679840088</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4223143458366394</v>
+        <v>0.5249706506729126</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -17088,7 +17088,7 @@
         <v>0.8757209777832031</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4550627470016479</v>
+        <v>0.6542560458183289</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -17156,7 +17156,7 @@
         <v>0.9272799491882324</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6094298958778381</v>
+        <v>0.8296502828598022</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -17224,7 +17224,7 @@
         <v>0.8690290451049805</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4211025238037109</v>
+        <v>0.4176412224769592</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -17292,7 +17292,7 @@
         <v>0.8619790077209473</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4203795194625854</v>
+        <v>0.7082430720329285</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -17360,7 +17360,7 @@
         <v>0.8766250610351562</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5379660129547119</v>
+        <v>0.4908617734909058</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -17428,7 +17428,7 @@
         <v>0.926807165145874</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4224058389663696</v>
+        <v>0.3710145056247711</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -17496,7 +17496,7 @@
         <v>0.8749849796295166</v>
       </c>
       <c r="V251" t="n">
-        <v>0.7040725350379944</v>
+        <v>0.8340836763381958</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -17564,7 +17564,7 @@
         <v>0.873927116394043</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6976108551025391</v>
+        <v>0.6531109213829041</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -17632,7 +17632,7 @@
         <v>0.9045891761779785</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5915652513504028</v>
+        <v>0.3507571518421173</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -17700,7 +17700,7 @@
         <v>0.9227340221405029</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5378779172897339</v>
+        <v>0.3514944016933441</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -17768,7 +17768,7 @@
         <v>0.8764941692352295</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6840715408325195</v>
+        <v>0.653493344783783</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -17836,7 +17836,7 @@
         <v>0.9018480777740479</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6980237364768982</v>
+        <v>0.4907240867614746</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -17904,7 +17904,7 @@
         <v>0.8710629940032959</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5161032676696777</v>
+        <v>0.4896917641162872</v>
       </c>
     </row>
     <row r="258" spans="1:22">
@@ -17972,7 +17972,7 @@
         <v>0.9148938655853271</v>
       </c>
       <c r="V258" t="n">
-        <v>0.8822028636932373</v>
+        <v>0.3507855832576752</v>
       </c>
     </row>
     <row r="259" spans="1:22">
@@ -18040,7 +18040,7 @@
         <v>0.8792588710784912</v>
       </c>
       <c r="V259" t="n">
-        <v>0.8004910945892334</v>
+        <v>0.5247749090194702</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -18108,7 +18108,7 @@
         <v>0.8634829521179199</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4795461297035217</v>
+        <v>0.8004976511001587</v>
       </c>
     </row>
     <row r="261" spans="1:22">
@@ -18176,7 +18176,7 @@
         <v>0.8691620826721191</v>
       </c>
       <c r="V261" t="n">
-        <v>0.587807834148407</v>
+        <v>0.4898227453231812</v>
       </c>
     </row>
     <row r="262" spans="1:22">
@@ -18244,7 +18244,7 @@
         <v>0.5913510322570801</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4212579131126404</v>
+        <v>0.9760575294494629</v>
       </c>
     </row>
     <row r="263" spans="1:22">
@@ -18312,7 +18312,7 @@
         <v>0.5278339385986328</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4770028591156006</v>
+        <v>0.6543079614639282</v>
       </c>
     </row>
     <row r="264" spans="1:22">
@@ -18380,7 +18380,7 @@
         <v>0.5258190631866455</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5379610061645508</v>
+        <v>0.5873388648033142</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -18448,7 +18448,7 @@
         <v>0.5403730869293213</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6181443929672241</v>
+        <v>0.5050956606864929</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -18516,7 +18516,7 @@
         <v>0.5224969387054443</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6282039284706116</v>
+        <v>0.6529941558837891</v>
       </c>
     </row>
     <row r="267" spans="1:22">
@@ -18584,7 +18584,7 @@
         <v>0.5204629898071289</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8876227140426636</v>
+        <v>0.6534236073493958</v>
       </c>
     </row>
     <row r="268" spans="1:22">
@@ -18652,7 +18652,7 @@
         <v>0.5326411724090576</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6980326771736145</v>
+        <v>0.4176313579082489</v>
       </c>
     </row>
     <row r="269" spans="1:22">
@@ -18720,7 +18720,7 @@
         <v>0.526104211807251</v>
       </c>
       <c r="V269" t="n">
-        <v>0.7903261780738831</v>
+        <v>0.6528818607330322</v>
       </c>
     </row>
     <row r="270" spans="1:22">
@@ -18788,7 +18788,7 @@
         <v>0.5166599750518799</v>
       </c>
       <c r="V270" t="n">
-        <v>0.7958468198776245</v>
+        <v>0.3518496155738831</v>
       </c>
     </row>
     <row r="271" spans="1:22">
@@ -18856,7 +18856,7 @@
         <v>0.5227890014648438</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6046422719955444</v>
+        <v>0.5058352947235107</v>
       </c>
     </row>
     <row r="272" spans="1:22">
@@ -18924,7 +18924,7 @@
         <v>0.5425238609313965</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4554891586303711</v>
+        <v>0.9756271839141846</v>
       </c>
     </row>
     <row r="273" spans="1:22">
@@ -18992,7 +18992,7 @@
         <v>0.5768120288848877</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4030694961547852</v>
+        <v>0.5048985481262207</v>
       </c>
     </row>
     <row r="274" spans="1:22">
@@ -19060,7 +19060,7 @@
         <v>0.5250701904296875</v>
       </c>
       <c r="V274" t="n">
-        <v>0.607180655002594</v>
+        <v>0.6536403894424438</v>
       </c>
     </row>
     <row r="275" spans="1:22">
@@ -19128,7 +19128,7 @@
         <v>0.5311338901519775</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6464481353759766</v>
+        <v>0.6531110405921936</v>
       </c>
     </row>
     <row r="276" spans="1:22">
@@ -19196,7 +19196,7 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4552754163742065</v>
+        <v>0.4611094295978546</v>
       </c>
     </row>
     <row r="277" spans="1:22">
@@ -19264,7 +19264,7 @@
         <v>0.5218639373779297</v>
       </c>
       <c r="V277" t="n">
-        <v>0.3871904611587524</v>
+        <v>0.4634914994239807</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -19332,7 +19332,7 @@
         <v>0.5229361057281494</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6179987788200378</v>
+        <v>0.6926973462104797</v>
       </c>
     </row>
     <row r="279" spans="1:22">
@@ -19400,7 +19400,7 @@
         <v>0.522878885269165</v>
       </c>
       <c r="V279" t="n">
-        <v>0.366996169090271</v>
+        <v>0.9752137064933777</v>
       </c>
     </row>
     <row r="280" spans="1:22">
@@ -19468,7 +19468,7 @@
         <v>0.5235879421234131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6281869411468506</v>
+        <v>0.8039833903312683</v>
       </c>
     </row>
     <row r="281" spans="1:22">
@@ -19536,7 +19536,7 @@
         <v>0.5196161270141602</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4923393726348877</v>
+        <v>0.5761433839797974</v>
       </c>
     </row>
     <row r="282" spans="1:22">
@@ -19604,7 +19604,7 @@
         <v>0.4017729759216309</v>
       </c>
       <c r="V282" t="n">
-        <v>0.378571629524231</v>
+        <v>0.4615276753902435</v>
       </c>
     </row>
     <row r="283" spans="1:22">
@@ -19672,7 +19672,7 @@
         <v>0.398914098739624</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5538752675056458</v>
+        <v>0.6539149880409241</v>
       </c>
     </row>
     <row r="284" spans="1:22">
@@ -19740,7 +19740,7 @@
         <v>0.4474029541015625</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4034273028373718</v>
+        <v>0.4176522493362427</v>
       </c>
     </row>
     <row r="285" spans="1:22">
@@ -19808,7 +19808,7 @@
         <v>0.39711594581604</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5380850434303284</v>
+        <v>0.5262220501899719</v>
       </c>
     </row>
     <row r="286" spans="1:22">
@@ -19876,7 +19876,7 @@
         <v>0.3987820148468018</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5692344903945923</v>
+        <v>0.5762413144111633</v>
       </c>
     </row>
     <row r="287" spans="1:22">
@@ -19944,7 +19944,7 @@
         <v>0.3974170684814453</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5378905534744263</v>
+        <v>0.3786694407463074</v>
       </c>
     </row>
     <row r="288" spans="1:22">
@@ -20012,7 +20012,7 @@
         <v>0.3986580371856689</v>
       </c>
       <c r="V288" t="n">
-        <v>0.36097651720047</v>
+        <v>0.5045692920684814</v>
       </c>
     </row>
     <row r="289" spans="1:22">
@@ -20080,7 +20080,7 @@
         <v>0.4135520458221436</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4207318425178528</v>
+        <v>0.5051002502441406</v>
       </c>
     </row>
     <row r="290" spans="1:22">
@@ -20148,7 +20148,7 @@
         <v>0.3954870700836182</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5890090465545654</v>
+        <v>0.9755794405937195</v>
       </c>
     </row>
     <row r="291" spans="1:22">
@@ -20216,7 +20216,7 @@
         <v>0.3995430469512939</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4005610942840576</v>
+        <v>0.5030666589736938</v>
       </c>
     </row>
     <row r="292" spans="1:22">
@@ -20284,7 +20284,7 @@
         <v>0.4001998901367188</v>
       </c>
       <c r="V292" t="n">
-        <v>0.480150043964386</v>
+        <v>0.3507497906684875</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -20352,7 +20352,7 @@
         <v>0.3985741138458252</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6571362614631653</v>
+        <v>0.5038111805915833</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -20420,7 +20420,7 @@
         <v>0.3945510387420654</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4833751916885376</v>
+        <v>0.5042976140975952</v>
       </c>
     </row>
     <row r="295" spans="1:22">
@@ -20488,7 +20488,7 @@
         <v>0.403709888458252</v>
       </c>
       <c r="V295" t="n">
-        <v>0.7899690866470337</v>
+        <v>0.4611244201660156</v>
       </c>
     </row>
     <row r="296" spans="1:22">
@@ -20556,7 +20556,7 @@
         <v>0.3948919773101807</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4784874320030212</v>
+        <v>0.5245010852813721</v>
       </c>
     </row>
     <row r="297" spans="1:22">
@@ -20624,7 +20624,7 @@
         <v>0.4047031402587891</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3610904812812805</v>
+        <v>0.5245612859725952</v>
       </c>
     </row>
     <row r="298" spans="1:22">
@@ -20692,7 +20692,7 @@
         <v>0.39634108543396</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4792518615722656</v>
+        <v>0.5908746719360352</v>
       </c>
     </row>
     <row r="299" spans="1:22">
@@ -20760,7 +20760,7 @@
         <v>0.3985579013824463</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4802040457725525</v>
+        <v>0.655465304851532</v>
       </c>
     </row>
     <row r="300" spans="1:22">
@@ -20828,7 +20828,7 @@
         <v>0.3948500156402588</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6980226039886475</v>
+        <v>0.3507419228553772</v>
       </c>
     </row>
     <row r="301" spans="1:22">
@@ -20896,7 +20896,7 @@
         <v>0.3982090950012207</v>
       </c>
       <c r="V301" t="n">
-        <v>0.8843103051185608</v>
+        <v>0.5037472248077393</v>
       </c>
     </row>
     <row r="302" spans="1:22">
